--- a/docs/source/tools/owagis/insumos/owa_teoria.xlsx
+++ b/docs/source/tools/owagis/insumos/owa_teoria.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\tmerino\owa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LANCIS Dropbox\Laboratorio Nacional de las Ciencias de la Sostenibilidad\CARPETAS_TRABAJO\vhernandez\repositorios_git\toolbox\docs\source\tools\owagis\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBC9EBF-11FA-438E-A6BC-4D72DAC5742B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A518C4-02AF-4019-8FD4-5E45E5D31C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="owas" sheetId="1" r:id="rId1"/>
-    <sheet name="owa" sheetId="3" r:id="rId2"/>
-    <sheet name="owa (2)" sheetId="9" r:id="rId3"/>
-    <sheet name="tabla1" sheetId="10" r:id="rId4"/>
-    <sheet name="tabla1_ns" sheetId="13" r:id="rId5"/>
+    <sheet name="owas (2)" sheetId="14" r:id="rId1"/>
+    <sheet name="owas" sheetId="1" r:id="rId2"/>
+    <sheet name="owa" sheetId="3" r:id="rId3"/>
+    <sheet name="owa (2)" sheetId="9" r:id="rId4"/>
+    <sheet name="tabla1" sheetId="10" r:id="rId5"/>
+    <sheet name="tabla1_ns" sheetId="13" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">owas!$D$14:$D$18</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">owas!#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">owas!$E$14:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">owas!$D$14:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'owas (2)'!$D$14:$D$18</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">owas!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'owas (2)'!#REF!</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">owas!$E$14:$E$18</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'owas (2)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="75">
   <si>
     <t>j</t>
   </si>
@@ -519,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -584,8 +585,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5045,475 +5052,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="compens_noncomp"/>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="15">
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>0.1</v>
-          </cell>
-          <cell r="D15">
-            <v>0.2</v>
-          </cell>
-          <cell r="E15">
-            <v>0.30000000000000004</v>
-          </cell>
-          <cell r="F15">
-            <v>0.4</v>
-          </cell>
-          <cell r="G15">
-            <v>0.5</v>
-          </cell>
-          <cell r="H15">
-            <v>0.60000000000000009</v>
-          </cell>
-          <cell r="I15">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="J15">
-            <v>0.8</v>
-          </cell>
-          <cell r="K15">
-            <v>0.9</v>
-          </cell>
-          <cell r="L15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>9.9999999999999978E-2</v>
-          </cell>
-          <cell r="D16">
-            <v>0.19999999999999998</v>
-          </cell>
-          <cell r="E16">
-            <v>0.30000000000000004</v>
-          </cell>
-          <cell r="F16">
-            <v>0.4</v>
-          </cell>
-          <cell r="G16">
-            <v>0.49999999999999994</v>
-          </cell>
-          <cell r="H16">
-            <v>0.60000000000000009</v>
-          </cell>
-          <cell r="I16">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="J16">
-            <v>0.8</v>
-          </cell>
-          <cell r="K16">
-            <v>0.9</v>
-          </cell>
-          <cell r="L16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.1</v>
-          </cell>
-          <cell r="B17">
-            <v>9.9999999999999978E-2</v>
-          </cell>
-          <cell r="C17">
-            <v>0.10352649238413773</v>
-          </cell>
-          <cell r="D17">
-            <v>0.20000000953673885</v>
-          </cell>
-          <cell r="E17">
-            <v>0.30000000000430194</v>
-          </cell>
-          <cell r="F17">
-            <v>0.40000000000001823</v>
-          </cell>
-          <cell r="G17">
-            <v>0.50000000000000022</v>
-          </cell>
-          <cell r="H17">
-            <v>0.60000000000000009</v>
-          </cell>
-          <cell r="I17">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="J17">
-            <v>0.8</v>
-          </cell>
-          <cell r="K17">
-            <v>0.9</v>
-          </cell>
-          <cell r="L17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.2</v>
-          </cell>
-          <cell r="B18">
-            <v>0.19999999999999998</v>
-          </cell>
-          <cell r="C18">
-            <v>0.20000000953673885</v>
-          </cell>
-          <cell r="D18">
-            <v>0.20705298476827552</v>
-          </cell>
-          <cell r="E18">
-            <v>0.30000451028565445</v>
-          </cell>
-          <cell r="F18">
-            <v>0.40000001907347771</v>
-          </cell>
-          <cell r="G18">
-            <v>0.5000000002748779</v>
-          </cell>
-          <cell r="H18">
-            <v>0.60000000000860398</v>
-          </cell>
-          <cell r="I18">
-            <v>0.70000000000046003</v>
-          </cell>
-          <cell r="J18">
-            <v>0.80000000000003646</v>
-          </cell>
-          <cell r="K18">
-            <v>0.90000000000000391</v>
-          </cell>
-          <cell r="L18">
-            <v>1.0000000000000004</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.30000000000000004</v>
-          </cell>
-          <cell r="B19">
-            <v>0.30000000000000004</v>
-          </cell>
-          <cell r="C19">
-            <v>0.30000000000430194</v>
-          </cell>
-          <cell r="D19">
-            <v>0.30000451028565445</v>
-          </cell>
-          <cell r="E19">
-            <v>0.3105794771524133</v>
-          </cell>
-          <cell r="F19">
-            <v>0.4000633288976907</v>
-          </cell>
-          <cell r="G19">
-            <v>0.50000091402373648</v>
-          </cell>
-          <cell r="H19">
-            <v>0.60000002861021662</v>
-          </cell>
-          <cell r="I19">
-            <v>0.70000000152943964</v>
-          </cell>
-          <cell r="J19">
-            <v>0.80000000012097217</v>
-          </cell>
-          <cell r="K19">
-            <v>0.90000000001290592</v>
-          </cell>
-          <cell r="L19">
-            <v>1.0000000000017435</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.4</v>
-          </cell>
-          <cell r="B20">
-            <v>0.4</v>
-          </cell>
-          <cell r="C20">
-            <v>0.40000000000001823</v>
-          </cell>
-          <cell r="D20">
-            <v>0.40000001907347771</v>
-          </cell>
-          <cell r="E20">
-            <v>0.4000633288976907</v>
-          </cell>
-          <cell r="F20">
-            <v>0.41410596953655099</v>
-          </cell>
-          <cell r="G20">
-            <v>0.50028666364718499</v>
-          </cell>
-          <cell r="H20">
-            <v>0.600009020571309</v>
-          </cell>
-          <cell r="I20">
-            <v>0.70000048228552569</v>
-          </cell>
-          <cell r="J20">
-            <v>0.80000003814695542</v>
-          </cell>
-          <cell r="K20">
-            <v>0.9000000040696976</v>
-          </cell>
-          <cell r="L20">
-            <v>1.0000000005497558</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.5</v>
-          </cell>
-          <cell r="B21">
-            <v>0.49999999999999994</v>
-          </cell>
-          <cell r="C21">
-            <v>0.50000000000000022</v>
-          </cell>
-          <cell r="D21">
-            <v>0.5000000002748779</v>
-          </cell>
-          <cell r="E21">
-            <v>0.50000091402373648</v>
-          </cell>
-          <cell r="F21">
-            <v>0.50028666364718499</v>
-          </cell>
-          <cell r="G21">
-            <v>0.51763246192068868</v>
-          </cell>
-          <cell r="H21">
-            <v>0.60077298749824082</v>
-          </cell>
-          <cell r="I21">
-            <v>0.70004180814468364</v>
-          </cell>
-          <cell r="J21">
-            <v>0.80000330859245394</v>
-          </cell>
-          <cell r="K21">
-            <v>0.90000035298869252</v>
-          </cell>
-          <cell r="L21">
-            <v>1.0000000476836943</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>0.60000000000000009</v>
-          </cell>
-          <cell r="B22">
-            <v>0.60000000000000009</v>
-          </cell>
-          <cell r="C22">
-            <v>0.60000000000000009</v>
-          </cell>
-          <cell r="D22">
-            <v>0.60000000000860398</v>
-          </cell>
-          <cell r="E22">
-            <v>0.60000002861021662</v>
-          </cell>
-          <cell r="F22">
-            <v>0.600009020571309</v>
-          </cell>
-          <cell r="G22">
-            <v>0.60077298749824082</v>
-          </cell>
-          <cell r="H22">
-            <v>0.62115895430482659</v>
-          </cell>
-          <cell r="I22">
-            <v>0.70156983418913521</v>
-          </cell>
-          <cell r="J22">
-            <v>0.80012665779538139</v>
-          </cell>
-          <cell r="K22">
-            <v>0.90001353085696345</v>
-          </cell>
-          <cell r="L22">
-            <v>1.000001828047473</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="B23">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="C23">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="D23">
-            <v>0.70000000000046003</v>
-          </cell>
-          <cell r="E23">
-            <v>0.70000000152943964</v>
-          </cell>
-          <cell r="F23">
-            <v>0.70000048228552569</v>
-          </cell>
-          <cell r="G23">
-            <v>0.70004180814468364</v>
-          </cell>
-          <cell r="H23">
-            <v>0.70156983418913521</v>
-          </cell>
-          <cell r="I23">
-            <v>0.72468544668896429</v>
-          </cell>
-          <cell r="J23">
-            <v>0.80268123902326616</v>
-          </cell>
-          <cell r="K23">
-            <v>0.90029442377064872</v>
-          </cell>
-          <cell r="L23">
-            <v>1.000039881019823</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>0.8</v>
-          </cell>
-          <cell r="B24">
-            <v>0.8</v>
-          </cell>
-          <cell r="C24">
-            <v>0.8</v>
-          </cell>
-          <cell r="D24">
-            <v>0.80000000000003646</v>
-          </cell>
-          <cell r="E24">
-            <v>0.80000000012097217</v>
-          </cell>
-          <cell r="F24">
-            <v>0.80000003814695542</v>
-          </cell>
-          <cell r="G24">
-            <v>0.80000330859245394</v>
-          </cell>
-          <cell r="H24">
-            <v>0.80012665779538139</v>
-          </cell>
-          <cell r="I24">
-            <v>0.80268123902326616</v>
-          </cell>
-          <cell r="J24">
-            <v>0.82821193907310209</v>
-          </cell>
-          <cell r="K24">
-            <v>0.90408624194809217</v>
-          </cell>
-          <cell r="L24">
-            <v>1.00057332729437</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>0.9</v>
-          </cell>
-          <cell r="B25">
-            <v>0.9</v>
-          </cell>
-          <cell r="C25">
-            <v>0.9</v>
-          </cell>
-          <cell r="D25">
-            <v>0.90000000000000391</v>
-          </cell>
-          <cell r="E25">
-            <v>0.90000000001290592</v>
-          </cell>
-          <cell r="F25">
-            <v>0.9000000040696976</v>
-          </cell>
-          <cell r="G25">
-            <v>0.90000035298869252</v>
-          </cell>
-          <cell r="H25">
-            <v>0.90001353085696345</v>
-          </cell>
-          <cell r="I25">
-            <v>0.90029442377064872</v>
-          </cell>
-          <cell r="J25">
-            <v>0.90408624194809217</v>
-          </cell>
-          <cell r="K25">
-            <v>0.93173843145723978</v>
-          </cell>
-          <cell r="L25">
-            <v>1.0057532579184596</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1</v>
-          </cell>
-          <cell r="B26">
-            <v>1</v>
-          </cell>
-          <cell r="C26">
-            <v>1</v>
-          </cell>
-          <cell r="D26">
-            <v>1.0000000000000004</v>
-          </cell>
-          <cell r="E26">
-            <v>1.0000000000017435</v>
-          </cell>
-          <cell r="F26">
-            <v>1.0000000005497558</v>
-          </cell>
-          <cell r="G26">
-            <v>1.0000000476836943</v>
-          </cell>
-          <cell r="H26">
-            <v>1.000001828047473</v>
-          </cell>
-          <cell r="I26">
-            <v>1.000039881019823</v>
-          </cell>
-          <cell r="J26">
-            <v>1.00057332729437</v>
-          </cell>
-          <cell r="K26">
-            <v>1.0057532579184596</v>
-          </cell>
-          <cell r="L26">
-            <v>1.0352649238413776</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5834,11 +5372,1815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9E6E9E-8C14-4197-8305-952269EF50B2}">
+  <dimension ref="A1:U45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>J$6-J2+1</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="6">
+        <f>(K2/K$7)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="0">J$6-J3+1</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L6" si="1">(K3/K$7)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>J$6-J6+1</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K2:K6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="25">
+        <f>INDEX(E$14:E$20,MATCH(F14,D$14:D$20,0))</f>
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="4">
+        <f>G14^A$14</f>
+        <v>0.99953958900308781</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>H14-I14</f>
+        <v>0.99953958900308781</v>
+      </c>
+      <c r="K14" s="4">
+        <f>J14*F14</f>
+        <v>0.79963167120247025</v>
+      </c>
+      <c r="N14" s="9">
+        <f>G14</f>
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="9">
+        <f>J14</f>
+        <v>0.99953958900308781</v>
+      </c>
+      <c r="P14" s="9">
+        <f>F14</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>N14*O14*P14</f>
+        <v>7.9963167120247029E-3</v>
+      </c>
+      <c r="R14" s="9">
+        <f>N14*O14</f>
+        <v>9.9953958900308778E-3</v>
+      </c>
+      <c r="S14" s="9">
+        <f>Q14/R$21</f>
+        <v>0.78086432552970519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" ref="G15:G20" si="2">INDEX(E$14:E$20,MATCH(F15,D$14:D$20,0))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM(G14:G15)^A$14</f>
+        <v>0.99994723811774888</v>
+      </c>
+      <c r="I15" s="4">
+        <f>(G14)^A14</f>
+        <v>0.99953958900308781</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15:J20" si="3">H15-I15</f>
+        <v>4.0764911466106835E-4</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ref="K15:K19" si="4">J15*F15</f>
+        <v>2.4458946879664102E-4</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" ref="N15:N20" si="5">G15</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" ref="O15:O20" si="6">J15</f>
+        <v>4.0764911466106835E-4</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" ref="P15:P20" si="7">F15</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" ref="Q15:Q20" si="8">N15*O15*P15</f>
+        <v>1.4186189190205177E-4</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" ref="R15:R20" si="9">N15*O15</f>
+        <v>2.3643648650341963E-4</v>
+      </c>
+      <c r="S15" s="9">
+        <f>Q15/R$21</f>
+        <v>1.3853239501117122E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM(G14:G16)^A$14</f>
+        <v>0.99995057158944267</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM(G14:G15)^A14</f>
+        <v>0.99994723811774888</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3334716937893916E-6</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6667358468946958E-6</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="6"/>
+        <v>3.3334716937893916E-6</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="8"/>
+        <v>3.3334716937893916E-8</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="9"/>
+        <v>6.6669433875787832E-8</v>
+      </c>
+      <c r="S16" s="9">
+        <f>Q16/R$21</f>
+        <v>3.2552351533661661E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25">
+        <v>4</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="25">
+        <f>INDEX(E$14:E$20,MATCH(F17,D$14:D$20,0))</f>
+        <v>0.08</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM(G14:G17)^A$14</f>
+        <v>0.99996289432029373</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUM(G14:G16)^A14</f>
+        <v>0.99995057158944267</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2322730851055397E-5</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6968192553166188E-6</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="6"/>
+        <v>1.2322730851055397E-5</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="8"/>
+        <v>2.9574554042532955E-7</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="9"/>
+        <v>9.8581846808443184E-7</v>
+      </c>
+      <c r="S17" s="9">
+        <f>Q17/R$21</f>
+        <v>2.8880439616075288E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25">
+        <v>5</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="H18" s="4">
+        <f>SUM(G14:G18)^A$14</f>
+        <v>0.99996852942072512</v>
+      </c>
+      <c r="I18" s="4">
+        <f>SUM(G14:G17)^A14</f>
+        <v>0.99996289432029373</v>
+      </c>
+      <c r="J18" s="4">
+        <f>H18-I18</f>
+        <v>5.6351004313892616E-6</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1270200862778524E-6</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="6"/>
+        <v>5.6351004313892616E-6</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="8"/>
+        <v>4.5080803451114096E-8</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="9"/>
+        <v>2.2540401725557047E-7</v>
+      </c>
+      <c r="S18" s="9">
+        <f>Q18/R$21</f>
+        <v>4.4022757538174239E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25">
+        <v>6</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="4">
+        <f>SUM(G14:G19)^A$14</f>
+        <v>0.99997255669200424</v>
+      </c>
+      <c r="I19" s="4">
+        <f>SUM(G14:G18)^A14</f>
+        <v>0.99996852942072512</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0272712791278309E-6</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="4"/>
+        <v>4.027271279127831E-7</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="6"/>
+        <v>4.0272712791278309E-6</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="8"/>
+        <v>1.2081813837383494E-8</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="9"/>
+        <v>1.2081813837383494E-7</v>
+      </c>
+      <c r="S19" s="9">
+        <f>Q19/R$21</f>
+        <v>1.1798253812429504E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25">
+        <v>7</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="4">
+        <f>SUM(G14:G20)^A$14</f>
+        <v>1.0000009950335804</v>
+      </c>
+      <c r="I20" s="4">
+        <f>SUM(G14:G19)^A14</f>
+        <v>0.99997255669200424</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8438341576175752E-5</v>
+      </c>
+      <c r="K20" s="4">
+        <f>J20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="6"/>
+        <v>2.8438341576175752E-5</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="9"/>
+        <v>7.109585394043938E-6</v>
+      </c>
+      <c r="S20" s="9">
+        <f>Q20/R$21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25">
+        <f>SUM(E14:E20)</f>
+        <v>1.01</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25">
+        <f>SUM(G14:G20)</f>
+        <v>1.01</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <f>SUM(G14:G20)^A14</f>
+        <v>1.0000009950335804</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="11">
+        <f>SUM(K14:K20)</f>
+        <v>0.79988315397358323</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="9">
+        <f>SUM(R14:R20)</f>
+        <v>1.0240340671985933E-2</v>
+      </c>
+      <c r="S21" s="10">
+        <f>SUM(S14:S20)</f>
+        <v>0.79475528280672691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="33" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>1</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="25">
+        <f>INDEX(E$26:E$32,MATCH(F26,D$26:D$32,0))</f>
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="4">
+        <f>G26^A$26</f>
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>H26-I26</f>
+        <v>0.01</v>
+      </c>
+      <c r="K26" s="4">
+        <f>J26*F26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N26">
+        <f>E14*D14</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P26" s="9">
+        <f>G26</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q26" s="9">
+        <f>J26</f>
+        <v>0.01</v>
+      </c>
+      <c r="R26" s="9">
+        <f>F26</f>
+        <v>0.8</v>
+      </c>
+      <c r="S26" s="9">
+        <f>P26*Q26*R26</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="T26" s="9">
+        <f>P26*Q26</f>
+        <v>1E-4</v>
+      </c>
+      <c r="U26" s="9">
+        <f>S26/$T$33</f>
+        <v>1.9593436198873379E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" ref="G27:G32" si="10">INDEX(E$26:E$32,MATCH(F27,D$26:D$32,0))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H27" s="4">
+        <f>SUM(G26:G27)^A$26</f>
+        <v>0.59</v>
+      </c>
+      <c r="I27" s="4">
+        <f>(G26)^A26</f>
+        <v>0.01</v>
+      </c>
+      <c r="J27" s="4">
+        <f>H27-I27</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K27" s="4">
+        <f>J27*F27</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="N27">
+        <f>E15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" ref="P27:P32" si="11">G27</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" ref="Q27:Q32" si="12">J27</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" ref="R27:R32" si="13">F27</f>
+        <v>0.6</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" ref="S27:S32" si="14">P27*Q27*R27</f>
+        <v>0.20183999999999999</v>
+      </c>
+      <c r="T27" s="9">
+        <f t="shared" ref="T27:T32" si="15">P27*Q27</f>
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" ref="U27:U32" si="16">S27/$T$33</f>
+        <v>0.49434239529757529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25">
+        <v>3</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="H28" s="4">
+        <f>SUM(G26:G28)^A$26</f>
+        <v>0.61</v>
+      </c>
+      <c r="I28" s="4">
+        <f>SUM(G26:G27)^A26</f>
+        <v>0.59</v>
+      </c>
+      <c r="J28" s="4">
+        <f>H28-I28</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <f>J28*F28</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="N28">
+        <f>E16*D16</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="11"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="12"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000017E-4</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="15"/>
+        <v>4.0000000000000034E-4</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="16"/>
+        <v>4.8983590497183487E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25">
+        <v>4</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="10"/>
+        <v>0.08</v>
+      </c>
+      <c r="H29" s="4">
+        <f>SUM(G26:G29)^A$26</f>
+        <v>0.69</v>
+      </c>
+      <c r="I29" s="4">
+        <f>SUM(G26:G28)^A26</f>
+        <v>0.61</v>
+      </c>
+      <c r="J29" s="4">
+        <f>H29-I29</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <f>J29*F29</f>
+        <v>2.3999999999999987E-2</v>
+      </c>
+      <c r="N29">
+        <f>E17*D17</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="11"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="12"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="14"/>
+        <v>1.919999999999999E-3</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="15"/>
+        <v>6.3999999999999968E-3</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="16"/>
+        <v>4.7024246877296078E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25">
+        <v>5</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="H30" s="4">
+        <f>SUM(G26:G30)^A$26</f>
+        <v>0.73</v>
+      </c>
+      <c r="I30" s="4">
+        <f>SUM(G26:G29)^A26</f>
+        <v>0.69</v>
+      </c>
+      <c r="J30" s="4">
+        <f>H30-I30</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <f>J30*F30</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="N30">
+        <f>E18*D18</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="14"/>
+        <v>3.200000000000003E-4</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="15"/>
+        <v>1.6000000000000014E-3</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="16"/>
+        <v>7.8373744795493579E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25">
+        <v>6</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+      <c r="H31" s="4">
+        <f>SUM(G26:G31)^A$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="I31" s="4">
+        <f>SUM(G26:G30)^A26</f>
+        <v>0.73</v>
+      </c>
+      <c r="J31" s="4">
+        <f>H31-I31</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" ref="K27:K31" si="17">J31*F31</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="N31">
+        <f>E19*D19</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="11"/>
+        <v>0.03</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="14"/>
+        <v>9.0000000000000073E-5</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="15"/>
+        <v>9.0000000000000073E-4</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="16"/>
+        <v>2.2042615723732566E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25">
+        <v>7</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F32" s="25">
+        <v>0</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="4">
+        <f>SUM(G26:G32)^A$26</f>
+        <v>1.01</v>
+      </c>
+      <c r="I32" s="4">
+        <f>SUM(G26:G31)^A26</f>
+        <v>0.76</v>
+      </c>
+      <c r="J32" s="4">
+        <f>H32-I32</f>
+        <v>0.25</v>
+      </c>
+      <c r="K32" s="4">
+        <f>J32*F32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>E20*D20</f>
+        <v>0.01</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <f>P32*Q32*R32</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="15"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25">
+        <f>SUM(E26:E32)</f>
+        <v>1.01</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25">
+        <f>SUM(G26:G32)</f>
+        <v>1.01</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="11">
+        <f>SUM(K26:K32)</f>
+        <v>0.40099999999999997</v>
+      </c>
+      <c r="N33" s="3">
+        <f>SUM(N26:N32)</f>
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="T33" s="9">
+        <f>SUM(T25:T32)</f>
+        <v>0.4083</v>
+      </c>
+      <c r="U33" s="10">
+        <f>SUM(U26:U32)</f>
+        <v>0.50073475385745769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="33" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>1000</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G38" s="25">
+        <f>INDEX(E$14:E$20,MATCH(F38,D$14:D$20,0))</f>
+        <v>0.01</v>
+      </c>
+      <c r="H38" s="4">
+        <f>G38^A$38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f>H38-I38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f>J38*F38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <f>G38</f>
+        <v>0.01</v>
+      </c>
+      <c r="O38" s="9">
+        <f>J38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <f>F38</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q38" s="9">
+        <f>N38*O38*P38</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <f>N38*O38</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <f>Q38/$R$45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25">
+        <v>2</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="25">
+        <f t="shared" ref="G39:G40" si="18">INDEX(E$14:E$20,MATCH(F39,D$14:D$20,0))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H39" s="4">
+        <f>SUM(G38:G39)^A$38</f>
+        <v>7.1123257942917278E-230</v>
+      </c>
+      <c r="I39" s="4">
+        <f>(G38)^A38</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" ref="J39:J41" si="19">H39-I39</f>
+        <v>7.1123257942917278E-230</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" ref="K39:K43" si="20">J39*F39</f>
+        <v>4.2673954765750361E-230</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" ref="N38:N43" si="21">G39</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" ref="O38:O43" si="22">J39</f>
+        <v>7.1123257942917278E-230</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" ref="P38:P43" si="23">F39</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" ref="Q38:Q43" si="24">N39*O39*P39</f>
+        <v>2.4750893764135206E-230</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" ref="R38:R43" si="25">N39*O39</f>
+        <v>4.1251489606892014E-230</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" ref="S39:S43" si="26">Q39/$R$45</f>
+        <v>9.8023341640139426E-230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25">
+        <v>3</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F40" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="25">
+        <f t="shared" si="18"/>
+        <v>0.02</v>
+      </c>
+      <c r="H40" s="4">
+        <f>SUM(G38:G40)^A$38</f>
+        <v>2.1371500282279778E-215</v>
+      </c>
+      <c r="I40" s="4">
+        <f>SUM(G38:G39)^A38</f>
+        <v>7.1123257942917278E-230</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="19"/>
+        <v>2.1371500282279706E-215</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="20"/>
+        <v>1.0685750141139853E-215</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" si="21"/>
+        <v>0.02</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="22"/>
+        <v>2.1371500282279706E-215</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="24"/>
+        <v>2.1371500282279705E-217</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="25"/>
+        <v>4.274300056455941E-217</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" si="26"/>
+        <v>8.4639605078335467E-217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25">
+        <v>4</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G41" s="25">
+        <f>INDEX(E$14:E$20,MATCH(F41,D$14:D$20,0))</f>
+        <v>0.08</v>
+      </c>
+      <c r="H41" s="4">
+        <f>SUM(G38:G41)^A$38</f>
+        <v>7.0646514078424371E-162</v>
+      </c>
+      <c r="I41" s="4">
+        <f>SUM(G38:G40)^A38</f>
+        <v>2.1371500282279778E-215</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="19"/>
+        <v>7.0646514078424371E-162</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="20"/>
+        <v>2.1193954223527311E-162</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="22"/>
+        <v>7.0646514078424371E-162</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" si="23"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="24"/>
+        <v>1.6955163378821848E-163</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="25"/>
+        <v>5.6517211262739499E-163</v>
+      </c>
+      <c r="S41" s="9">
+        <f t="shared" si="26"/>
+        <v>6.7149161896324148E-163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25">
+        <v>5</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E42" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G42" s="25">
+        <f t="shared" ref="G42:G44" si="27">INDEX(E$14:E$20,MATCH(F42,D$14:D$20,0))</f>
+        <v>0.04</v>
+      </c>
+      <c r="H42" s="4">
+        <f>SUM(G38:G42)^A$38</f>
+        <v>2.1031009543374613E-137</v>
+      </c>
+      <c r="I42" s="4">
+        <f>SUM(G38:G41)^A38</f>
+        <v>7.0646514078424371E-162</v>
+      </c>
+      <c r="J42" s="4">
+        <f>H42-I42</f>
+        <v>2.1031009543374613E-137</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="20"/>
+        <v>4.206201908674923E-138</v>
+      </c>
+      <c r="N42" s="9">
+        <f t="shared" si="21"/>
+        <v>0.04</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="22"/>
+        <v>2.1031009543374613E-137</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="24"/>
+        <v>1.6824807634699693E-139</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="25"/>
+        <v>8.412403817349846E-139</v>
+      </c>
+      <c r="S42" s="9">
+        <f>Q42/$R$45</f>
+        <v>6.6632901523563145E-139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25">
+        <v>6</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="F43" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G43" s="25">
+        <f t="shared" si="27"/>
+        <v>0.03</v>
+      </c>
+      <c r="H43" s="4">
+        <f>SUM(G38:G43)^A$38</f>
+        <v>6.5101692706942525E-120</v>
+      </c>
+      <c r="I43" s="4">
+        <f>SUM(G38:G42)^A38</f>
+        <v>2.1031009543374613E-137</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" ref="J43:J44" si="28">H43-I43</f>
+        <v>6.5101692706942525E-120</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="20"/>
+        <v>6.5101692706942532E-121</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="21"/>
+        <v>0.03</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="22"/>
+        <v>6.5101692706942525E-120</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="23"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="24"/>
+        <v>1.9530507812082759E-122</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="25"/>
+        <v>1.9530507812082757E-121</v>
+      </c>
+      <c r="S43" s="9">
+        <f t="shared" si="26"/>
+        <v>7.7348545790426766E-122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25">
+        <v>7</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F44" s="25">
+        <v>0</v>
+      </c>
+      <c r="G44" s="25">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="4">
+        <f>SUM(G38:G44)^A$26</f>
+        <v>1.01</v>
+      </c>
+      <c r="I44" s="4">
+        <f>SUM(G38:G43)^A38</f>
+        <v>6.5101692706942525E-120</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="28"/>
+        <v>1.01</v>
+      </c>
+      <c r="K44" s="4">
+        <f>J44*F44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" ref="N44" si="29">G44</f>
+        <v>0.25</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" ref="O44" si="30">J44</f>
+        <v>1.01</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" ref="P44" si="31">F44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" ref="Q44" si="32">N44*O44*P44</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" ref="R44" si="33">N44*O44</f>
+        <v>0.2525</v>
+      </c>
+      <c r="S44" s="9">
+        <f>Q44/$R$45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25">
+        <f>SUM(E38:E44)</f>
+        <v>1.01</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25">
+        <f>SUM(G38:G44)</f>
+        <v>1.01</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="11">
+        <f>SUM(K38:K44)</f>
+        <v>6.5101692706942532E-121</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="R45" s="9">
+        <f>SUM(R37:R44)</f>
+        <v>0.2525</v>
+      </c>
+      <c r="S45" s="10">
+        <f>SUM(S38:S44)</f>
+        <v>7.7348545790426766E-122</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F14:F20">
+    <sortCondition descending="1" ref="F14"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N12:S12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5856,10 +7198,10 @@
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="25"/>
+      <c r="J1" s="26"/>
       <c r="K1" t="s">
         <v>32</v>
       </c>
@@ -5874,8 +7216,8 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2">
         <v>1</v>
       </c>
@@ -6027,14 +7369,14 @@
       <c r="L12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6699,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="9"/>
+        <f>INDEX(F$14:F$18,MATCH(G28,D$14:D$18,0))</f>
         <v>0.27</v>
       </c>
       <c r="I28" s="4">
@@ -7048,12 +8390,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:M7"/>
+  <dimension ref="B1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,19 +8457,19 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7">
         <v>0.6</v>
       </c>
       <c r="D3" s="7">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="7">
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F3" s="8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7140,9 +8482,9 @@
         <f>H3*E3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="6">
-        <f>I3/SUM($H$3:$H$6)</f>
-        <v>0</v>
+      <c r="J3" s="6" t="e">
+        <f>I3/SUM($H$3:$H$4)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -7156,13 +8498,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="7">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="8">
         <v>0.1</v>
@@ -7171,16 +8513,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H6" si="0">G4*F4</f>
+        <f>G4*F4</f>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I6" si="1">H4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" ref="J4:J6" si="2">I4/SUM($H$3:$H$6)</f>
-        <v>0</v>
+        <f>H4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="e">
+        <f>I4/SUM($H$3:$H$4)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -7191,40 +8533,34 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="7">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.5</v>
+        <v>0.03</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.1</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
+        <f>G5*F5</f>
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <f>H5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="e">
+        <f>I5/SUM($H$3:$H$4)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -7232,64 +8568,94 @@
         <v>4</v>
       </c>
       <c r="C6" s="7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="7">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="25">
         <v>0.3</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
+        <f>G6*F6</f>
         <v>0.3</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
+        <f>H6*E6</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="6" t="e">
+        <f>I6/SUM($H$3:$H$4)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28">
         <f>SUM(E3:E6)</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="J7" s="14">
-        <f>SUM(J3:J6)</f>
-        <v>0.2</v>
+        <v>0.87</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="J10" s="14" t="e">
+        <f>SUM(J3:J4)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J6">
+    <sortCondition descending="1" ref="E3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E42D1C-DF92-47AB-A2F6-1EF2A0BFB819}">
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7298,23 +8664,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
@@ -8311,12 +9677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12132765-E8E7-4443-BA72-D86223960953}">
   <dimension ref="F1:O24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8720,12 +10086,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5555CD72-9615-438B-81BE-FDC9A85C88F0}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
